--- a/OnBoard/output/trust/bio/Bio_Trust_71.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_71.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F2">
@@ -477,19 +477,14 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="I2">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L2">
@@ -499,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,7 +514,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F3">
@@ -529,14 +524,14 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L3">
@@ -546,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F4">
@@ -576,19 +571,14 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L4">
@@ -598,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,7 +608,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F5">
@@ -628,14 +618,14 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L5">
@@ -645,7 +635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -665,7 +655,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F6">
@@ -675,14 +665,14 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L6">
@@ -692,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -712,7 +702,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F7">
@@ -722,29 +712,24 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L7">
         <v>0</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -764,7 +749,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F8">
@@ -774,14 +759,14 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="I8">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L8">
@@ -791,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -811,7 +796,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F9">
@@ -821,14 +806,14 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="I9">
-        <v>48</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L9">
@@ -838,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -858,7 +843,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F10">
@@ -868,19 +853,14 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I10">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L10">
@@ -890,7 +870,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -910,7 +890,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F11">
@@ -920,19 +900,14 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I11">
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L11">
@@ -942,7 +917,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -962,7 +937,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F12">
@@ -972,19 +947,14 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="I12">
-        <v>59</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L12">
@@ -994,7 +964,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1014,7 +984,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F13">
@@ -1024,19 +994,14 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="I13">
-        <v>57</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L13">
@@ -1046,7 +1011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1066,7 +1031,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F14">
@@ -1076,19 +1041,14 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I14">
-        <v>58</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>FROSQ-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L14">
@@ -1098,7 +1058,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1118,7 +1078,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F15">
@@ -1128,19 +1088,19 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="I15">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L15">
@@ -1150,7 +1110,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1180,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I16">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1192,7 +1152,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L16">
@@ -1202,7 +1162,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1232,14 +1192,19 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I17">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L17">
@@ -1249,7 +1214,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1279,14 +1244,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L18">
@@ -1296,7 +1266,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1326,14 +1296,19 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I19">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L19">
@@ -1343,7 +1318,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1373,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I20">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1395,7 +1370,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1425,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I21">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1447,7 +1422,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1477,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I22">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1494,7 +1469,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1524,19 +1499,14 @@
         <v>1</v>
       </c>
       <c r="H23">
+        <v>29</v>
+      </c>
+      <c r="I23">
         <v>33</v>
       </c>
-      <c r="I23">
-        <v>54</v>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L23">
@@ -1546,7 +1516,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1576,19 +1546,14 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I24">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L24">
@@ -1598,7 +1563,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1628,19 +1593,14 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I25">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L25">
@@ -1650,7 +1610,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1670,7 +1630,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F26">
@@ -1680,19 +1640,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="I26">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L26">
@@ -1702,7 +1657,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1722,7 +1677,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F27">
@@ -1732,19 +1687,14 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="I27">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L27">
@@ -1754,7 +1704,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1774,7 +1724,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F28">
@@ -1784,19 +1734,14 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="I28">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L28">
@@ -1806,7 +1751,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1826,7 +1771,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F29">
@@ -1836,19 +1781,14 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="I29">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L29">
@@ -1858,7 +1798,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1878,7 +1818,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F30">
@@ -1888,14 +1828,14 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L30">
@@ -1905,7 +1845,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1925,7 +1865,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F31">
@@ -1935,14 +1875,14 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L31">
@@ -1952,7 +1892,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1972,7 +1912,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F32">
@@ -1982,14 +1922,19 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L32">
@@ -1999,7 +1944,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2019,7 +1964,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F33">
@@ -2029,14 +1974,14 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L33">
@@ -2046,7 +1991,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2061,12 +2006,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F34">
@@ -2076,14 +2021,19 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L34">
@@ -2093,7 +2043,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2108,12 +2058,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F35">
@@ -2123,14 +2073,19 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L35">
@@ -2140,7 +2095,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2155,12 +2110,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F36">
@@ -2170,14 +2125,19 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L36">
@@ -2187,7 +2147,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2202,12 +2162,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F37">
@@ -2217,14 +2177,19 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L37">
@@ -2234,7 +2199,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2249,12 +2214,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F38">
@@ -2264,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="I38">
         <v>-1</v>
@@ -2281,7 +2246,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2301,7 +2266,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F39">
@@ -2311,19 +2276,14 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="I39">
-        <v>69</v>
+        <v>-1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L39">
@@ -2333,7 +2293,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2353,7 +2313,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F40">
@@ -2363,19 +2323,14 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="I40">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L40">
@@ -2385,7 +2340,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2405,7 +2360,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F41">
@@ -2415,19 +2370,14 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="I41">
-        <v>64</v>
+        <v>-1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>FROSQ-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L41">
@@ -2437,7 +2387,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2457,7 +2407,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F42">
@@ -2467,19 +2417,14 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="I42">
-        <v>51</v>
+        <v>-1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>FROSQ-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L42">
@@ -2489,7 +2434,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2509,7 +2454,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F43">
@@ -2519,14 +2464,14 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I43">
-        <v>70</v>
+        <v>-1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L43">
@@ -2536,7 +2481,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2556,7 +2501,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F44">
@@ -2566,19 +2511,14 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I44">
-        <v>47</v>
+        <v>-1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L44">
@@ -2588,7 +2528,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2608,7 +2548,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F45">
@@ -2618,19 +2558,14 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I45">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L45">
@@ -2640,7 +2575,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2660,7 +2595,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F46">
@@ -2670,19 +2605,14 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="I46">
-        <v>70</v>
+        <v>-1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>FROSQ-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L46">
@@ -2692,7 +2622,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2712,7 +2642,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F47">
@@ -2722,19 +2652,14 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="I47">
-        <v>54</v>
+        <v>-1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>FROSQ-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L47">
@@ -2744,7 +2669,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2764,7 +2689,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F48">
@@ -2774,19 +2699,14 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="I48">
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L48">
@@ -2796,7 +2716,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2816,7 +2736,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F49">
@@ -2826,14 +2746,14 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I49">
-        <v>56</v>
+        <v>-1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L49">
@@ -2843,7 +2763,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2863,7 +2783,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F50">
@@ -2873,14 +2793,14 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I50">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L50">
@@ -2890,7 +2810,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2910,7 +2830,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F51">
@@ -2920,19 +2840,14 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="I51">
-        <v>71</v>
+        <v>-1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>FROSQ-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L51">
@@ -2942,7 +2857,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2962,7 +2877,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F52">
@@ -2972,19 +2887,14 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I52">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L52">
@@ -2994,7 +2904,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3014,7 +2924,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F53">
@@ -3024,19 +2934,14 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L53">
@@ -3046,7 +2951,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3066,7 +2971,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F54">
@@ -3076,14 +2981,14 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I54">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L54">
@@ -3093,7 +2998,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3113,7 +3018,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F55">
@@ -3123,14 +3028,14 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="I55">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L55">
@@ -3140,7 +3045,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3170,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I56">
         <v>-1</v>
@@ -3187,7 +3092,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3217,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="I57">
         <v>-1</v>
@@ -3234,7 +3139,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3264,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="I58">
         <v>-1</v>
@@ -3281,7 +3186,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3301,7 +3206,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F59">
@@ -3311,14 +3216,14 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="I59">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L59">
@@ -3328,7 +3233,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3348,7 +3253,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F60">
@@ -3358,14 +3263,14 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="I60">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L60">
@@ -3375,7 +3280,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3395,7 +3300,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F61">
@@ -3405,14 +3310,14 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="I61">
-        <v>-1</v>
+        <v>58</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L61">
@@ -3422,7 +3327,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3442,7 +3347,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F62">
@@ -3452,14 +3357,14 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="I62">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L62">
@@ -3469,7 +3374,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3489,7 +3394,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F63">
@@ -3499,14 +3404,19 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I63">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L63">
@@ -3516,7 +3426,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3536,7 +3446,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F64">
@@ -3546,14 +3456,19 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I64">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L64">
@@ -3563,7 +3478,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3583,7 +3498,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F65">
@@ -3593,14 +3508,19 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I65">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L65">
@@ -3610,7 +3530,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3630,7 +3550,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F66">
@@ -3640,14 +3560,19 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="I66">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L66">
@@ -3657,7 +3582,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3677,7 +3602,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F67">
@@ -3687,14 +3612,19 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="I67">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L67">
@@ -3704,7 +3634,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3724,7 +3654,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F68">
@@ -3734,19 +3664,19 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I68">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>SOSEM-2</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L68">
@@ -3756,7 +3686,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3776,7 +3706,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F69">
@@ -3786,14 +3716,19 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="I69">
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>FROSQ-3</t>
         </is>
       </c>
       <c r="L69">
@@ -3803,7 +3738,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3823,7 +3758,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F70">
@@ -3833,19 +3768,19 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="I70">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L70">
@@ -3855,7 +3790,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3875,7 +3810,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F71">
@@ -3885,19 +3820,19 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="I71">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>FROSQ-3</t>
         </is>
       </c>
       <c r="L71">
@@ -3907,7 +3842,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3927,7 +3862,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F72">
@@ -3937,10 +3872,10 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="I72">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3949,7 +3884,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>FROSQ-3</t>
         </is>
       </c>
       <c r="L72">
@@ -3959,7 +3894,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3979,7 +3914,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F73">
@@ -3989,19 +3924,19 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="I73">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L73">
@@ -4011,7 +3946,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4026,12 +3961,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F74">
@@ -4041,29 +3976,34 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="I74">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L74">
         <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>SS8125</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4083,7 +4023,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F75">
@@ -4093,29 +4033,34 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="I75">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L75">
         <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>SS8126</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4135,7 +4080,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F76">
@@ -4145,10 +4090,10 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="I76">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4157,816 +4102,16 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>RAJAAST</t>
-        </is>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>298</v>
-      </c>
-      <c r="I77">
-        <v>154</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
-        </is>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>RAJAAST</t>
-        </is>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>255</v>
-      </c>
-      <c r="I78">
-        <v>100</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
-        </is>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>RAJAAST</t>
-        </is>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>264</v>
-      </c>
-      <c r="I79">
-        <v>106</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
-        </is>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>RAJAAST</t>
-        </is>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>340</v>
-      </c>
-      <c r="I80">
-        <v>265</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
-        </is>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>RAJAAST</t>
-        </is>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>193</v>
-      </c>
-      <c r="I81">
-        <v>39</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
-        </is>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>RAJAAST</t>
-        </is>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>213</v>
-      </c>
-      <c r="I82">
-        <v>49</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
-        </is>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>SOLEIMP</t>
-        </is>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>170</v>
-      </c>
-      <c r="I83">
-        <v>-1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>247</v>
-      </c>
-      <c r="I84">
-        <v>153</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>SS7933</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>277</v>
-      </c>
-      <c r="I85">
-        <v>190</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>SS7934</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>240</v>
-      </c>
-      <c r="I86">
-        <v>122</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>SS7935</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>234</v>
-      </c>
-      <c r="I87">
-        <v>118</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>SS7936</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>276</v>
-      </c>
-      <c r="I88">
-        <v>186</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>SS7937</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>253</v>
-      </c>
-      <c r="I89">
-        <v>155</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>SS7938</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>303</v>
-      </c>
-      <c r="I90">
-        <v>300</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>SS7939</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>26</v>
-      </c>
-      <c r="I91">
-        <v>4</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L91">
-        <v>0</v>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>SS8127</t>
+        </is>
       </c>
     </row>
   </sheetData>
